--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD53AAB-9C50-4626-AE51-695E0D412FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79540380-803F-4D51-906F-90206AF9365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,41 +34,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-max = 
-Current Year</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -128,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -352,24 +317,9 @@
     <t>expected</t>
   </si>
   <si>
-    <t>Actor1, Actor2</t>
-  </si>
-  <si>
-    <t>keyword1, keyword2</t>
-  </si>
-  <si>
-    <t>record added</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>Error message-? Compiler checked</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -395,30 +345,6 @@
   </si>
   <si>
     <t>expected result</t>
-  </si>
-  <si>
-    <t>TC3_EC</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>"M"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Director1, Director 2</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>"M…123"</t>
-  </si>
-  <si>
-    <t>"M…12"</t>
-  </si>
-  <si>
-    <t>"M…1234"</t>
   </si>
   <si>
     <t>BBT TCs</t>
@@ -575,9 +501,6 @@
     <t>Payment Saved</t>
   </si>
   <si>
-    <t>Error message - Invalid amount</t>
-  </si>
-  <si>
     <t>CASH</t>
   </si>
   <si>
@@ -588,9 +511,6 @@
   </si>
   <si>
     <t>1, 5, 7</t>
-  </si>
-  <si>
-    <t>Error message - Invalid table. Invalid amount</t>
   </si>
   <si>
     <t>3, 4, 7</t>
@@ -601,6 +521,108 @@
   <si>
     <t xml:space="preserve">table is int, table is in [1,8]
 </t>
+  </si>
+  <si>
+    <t>amount is double, amount is in (0, 10000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type is PaymentType, type in {CASH, CARD}
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F01. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>addPayment(int table, PaymentType type, double amount)</t>
+    </r>
+  </si>
+  <si>
+    <t>table = 0</t>
+  </si>
+  <si>
+    <t>table = 1</t>
+  </si>
+  <si>
+    <t>table = 2</t>
+  </si>
+  <si>
+    <t>table = 7</t>
+  </si>
+  <si>
+    <t>table = 8</t>
+  </si>
+  <si>
+    <t>amount = 0.0</t>
+  </si>
+  <si>
+    <t>Error message - Invalid amount.</t>
+  </si>
+  <si>
+    <t>Error message - Invalid table. Invalid amount.</t>
+  </si>
+  <si>
+    <t>amount = 0.01</t>
+  </si>
+  <si>
+    <t>amount = 1.0</t>
+  </si>
+  <si>
+    <t>amount = 10000.0</t>
+  </si>
+  <si>
+    <t>amount = 10000.01</t>
+  </si>
+  <si>
+    <t>amount = 9999.99</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>table = 9</t>
+  </si>
+  <si>
+    <t>1, 7, 13</t>
+  </si>
+  <si>
+    <t>2, 8, 14</t>
+  </si>
+  <si>
+    <t>3, 9</t>
+  </si>
+  <si>
+    <t>4, 10</t>
+  </si>
+  <si>
+    <t>5, 11</t>
+  </si>
+  <si>
+    <t>6, 12</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
   </si>
 </sst>
 </file>
@@ -673,13 +695,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,13 +709,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,6 +789,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1261,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1271,58 +1291,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,30 +1336,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1390,12 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,31 +1413,19 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,7 +1443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,10 +1473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,10 +1488,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1547,8 +1533,17 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,50 +1555,56 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,24 +1929,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
-      <c r="H1" s="38" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -1960,10 +1961,10 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="39">
+      <c r="I4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="33">
         <v>234</v>
       </c>
     </row>
@@ -1971,28 +1972,28 @@
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="39">
+      <c r="I5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="33">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
+      <c r="B6" s="18"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="39">
+      <c r="I6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="33">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2053,7 +2054,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2063,7 +2064,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2107,25 +2108,25 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="37"/>
+      <c r="C26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2146,7 +2147,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,64 +2167,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="108" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="G5" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="107" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="98" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2231,25 +2232,25 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>85</v>
+      <c r="C7" s="60" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>96</v>
+      <c r="G7" s="54"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="98" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2257,16 +2258,16 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="15">
+        <v>74</v>
+      </c>
+      <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2275,26 +2276,26 @@
         <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="106" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="L8" s="97" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="15">
+        <v>75</v>
+      </c>
+      <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2303,218 +2304,218 @@
         <v>-10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="106" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="L9" s="97" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>89</v>
+      <c r="C10" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="105">
+      <c r="G10" s="93">
         <v>3</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="H10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="16">
         <v>-1</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="16">
         <v>20000.5</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="110" t="s">
-        <v>104</v>
+      <c r="K10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="105">
+        <v>79</v>
+      </c>
+      <c r="G11" s="93">
         <v>4</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="H11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="16">
         <v>10</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="16">
         <v>50.99</v>
       </c>
-      <c r="K11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="110" t="s">
-        <v>106</v>
+      <c r="K11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="105">
+        <v>77</v>
+      </c>
+      <c r="G12" s="93">
         <v>5</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="110"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>93</v>
+      <c r="C13" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="105">
+      <c r="G13" s="93">
         <v>6</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="110"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="105">
+        <v>40</v>
+      </c>
+      <c r="G14" s="93">
         <v>7</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="110"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>42</v>
+      <c r="C15" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="105">
+      <c r="G15" s="93">
         <v>8</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="110"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="101"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="110"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>42</v>
+      <c r="C17" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="110"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="101"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="110"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="101"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="55" t="s">
-        <v>42</v>
+      <c r="C19" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="110"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="101"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2538,14 +2539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:R30"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2558,614 +2559,613 @@
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="39.77734375" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.33203125" customWidth="1"/>
     <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="62" t="s">
+      <c r="J6" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="93">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="93">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="93">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="8">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8">
+        <v>9999.99</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="59"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="93">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="8">
+        <v>8</v>
+      </c>
+      <c r="L11" s="8">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="93">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>7</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="8">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="47">
+        <v>2</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="G13" s="93">
+        <v>6</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8">
+        <v>10000.01</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="59"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="G15" s="10">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="8">
+        <v>9</v>
+      </c>
+      <c r="L15" s="8">
         <v>50</v>
       </c>
-      <c r="I6" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="68"/>
-    </row>
-    <row r="7" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="55">
-        <v>1</v>
-      </c>
-      <c r="C7" s="72" t="s">
+      <c r="M15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="59"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="48"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="48"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="11">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12">
-        <v>2</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="54"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="2"/>
-      <c r="G10" s="15">
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="47">
         <v>3</v>
       </c>
-      <c r="H10" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="22">
-        <v>2010</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="65"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="2"/>
-      <c r="G11" s="15">
+      <c r="C19" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="59"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="2"/>
+      <c r="G21" s="10">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="59"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="10">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="59"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="2"/>
+      <c r="G23" s="10">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="48"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="10">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="47">
         <v>4</v>
       </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="22">
-        <v>2010</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="65"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="15">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="22">
-        <v>2010</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="65"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="55">
-        <v>2</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="2"/>
-      <c r="G13" s="11">
-        <v>6</v>
-      </c>
-      <c r="H13" s="12">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="10">
-        <v>2010</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="54"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="15">
-        <v>7</v>
-      </c>
-      <c r="H14" s="9">
-        <v>7</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="65"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="15">
-        <v>8</v>
-      </c>
-      <c r="H15" s="9">
-        <v>8</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="65"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="15">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="65"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="15">
-        <v>10</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="65"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="15">
-        <v>11</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="65"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="55">
-        <v>3</v>
-      </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="2"/>
-      <c r="G19" s="15">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="65"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="15">
-        <v>13</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="65"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="71"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="15">
-        <v>14</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="65"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="15">
-        <v>15</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="65"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="15">
-        <v>16</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="65"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="15">
-        <v>17</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="65"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="55">
-        <v>4</v>
-      </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="2"/>
-      <c r="G25" s="15">
+      <c r="G25" s="10">
         <v>18</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="65"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="71"/>
-      <c r="C26" s="73"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="59"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="73"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="59"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="71"/>
-      <c r="C28" s="73"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="59"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="30"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="71"/>
-      <c r="C29" s="73"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="59"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="31"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="48"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="20">
+    <mergeCell ref="G5:N5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3179,37 +3179,16 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3237,383 +3216,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
+      <c r="B3" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="B4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="51" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="51"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="87"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>67</v>
+      <c r="N5" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="112"/>
+      <c r="C6" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="103"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="105"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="93"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="105"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="93"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="105"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="93"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="105"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="93"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="105"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="93"/>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="79"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="81"/>
+      <c r="C17" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="69"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="76" t="s">
-        <v>76</v>
+      <c r="G18" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="83"/>
+      <c r="J18" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="64" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="76"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="25">
+      <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="19">
         <v>4</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="91"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="79"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="22">
         <v>0</v>
       </c>
-      <c r="M20" s="32" t="s">
-        <v>80</v>
+      <c r="M20" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M21" s="3"/>

--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79540380-803F-4D51-906F-90206AF9365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39933D8-FE32-4BE1-BA8F-B41BB090A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -296,24 +296,6 @@
     <t>output data</t>
   </si>
   <si>
-    <t>titlu</t>
-  </si>
-  <si>
-    <t>regizor</t>
-  </si>
-  <si>
-    <t>an aparitie</t>
-  </si>
-  <si>
-    <t>actori</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
-    <t>cuvinte cheie</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
@@ -366,6 +348,12 @@
   </si>
   <si>
     <t>F01</t>
+  </si>
+  <si>
+    <t>TC1_ECP</t>
+  </si>
+  <si>
+    <t>TC3_BVA</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -623,6 +611,12 @@
   </si>
   <si>
     <t>TC4</t>
+  </si>
+  <si>
+    <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t>TC8_BVA</t>
   </si>
 </sst>
 </file>
@@ -846,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1043,19 +1037,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1281,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1452,86 +1433,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,10 +1521,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1562,48 +1534,29 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1962,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J4" s="33">
         <v>234</v>
@@ -1973,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="33">
         <v>234</v>
@@ -1985,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J6" s="33">
         <v>234</v>
@@ -2147,7 +2100,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I9" sqref="I9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,7 +2129,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -2191,14 +2144,14 @@
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
     </row>
     <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
@@ -2224,7 +2177,7 @@
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="95" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2233,25 +2186,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" s="54"/>
       <c r="H7" s="44"/>
       <c r="I7" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="98" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="K7" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -2261,13 +2214,13 @@
       <c r="C8" s="61"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2276,10 +2229,10 @@
         <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="97" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="L8" s="94" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2289,13 +2242,13 @@
       <c r="C9" s="62"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2304,10 +2257,10 @@
         <v>-10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="97" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="L9" s="94" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -2315,17 +2268,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="93">
+      <c r="G10" s="90">
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I10" s="16">
         <v>-1</v>
@@ -2334,10 +2287,10 @@
         <v>20000.5</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="101" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="L10" s="98" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2347,13 +2300,13 @@
       <c r="C11" s="59"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="93">
+        <v>75</v>
+      </c>
+      <c r="G11" s="90">
         <v>4</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I11" s="16">
         <v>10</v>
@@ -2362,10 +2315,10 @@
         <v>50.99</v>
       </c>
       <c r="K11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="98" t="s">
         <v>87</v>
-      </c>
-      <c r="L11" s="101" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -2375,36 +2328,36 @@
       <c r="C12" s="48"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="93">
+        <v>73</v>
+      </c>
+      <c r="G12" s="90">
         <v>5</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="98"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="93">
+      <c r="G13" s="90">
         <v>6</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="101"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
@@ -2413,34 +2366,34 @@
       <c r="C14" s="48"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="93">
+        <v>34</v>
+      </c>
+      <c r="G14" s="90">
         <v>7</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="93">
+      <c r="G15" s="90">
         <v>8</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="101"/>
+      <c r="L15" s="98"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
@@ -2454,14 +2407,14 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2470,7 +2423,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="101"/>
+      <c r="L17" s="98"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
@@ -2484,14 +2437,14 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="98"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2500,7 +2453,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="101"/>
+      <c r="L19" s="98"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -2512,7 +2465,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -2545,8 +2498,8 @@
   </sheetPr>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2578,8 +2531,8 @@
       <c r="E1" s="38"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
-        <v>95</v>
+      <c r="B3" s="104" t="s">
+        <v>91</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -2589,51 +2542,51 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
+      <c r="G5" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="53" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K6" s="55" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="56"/>
-      <c r="N6" s="119" t="s">
+      <c r="N6" s="105" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2642,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2655,38 +2608,38 @@
       <c r="I7" s="54"/>
       <c r="J7" s="44"/>
       <c r="K7" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="98" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="N7" s="95" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="C8" s="61"/>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="90">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -2695,32 +2648,32 @@
         <v>0.01</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="59"/>
       <c r="C9" s="61"/>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="90">
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -2729,32 +2682,32 @@
         <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="59"/>
       <c r="C10" s="61"/>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="90">
         <v>3</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K10" s="8">
         <v>7</v>
@@ -2763,32 +2716,32 @@
         <v>9999.99</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="59"/>
       <c r="C11" s="61"/>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="90">
         <v>4</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K11" s="8">
         <v>8</v>
@@ -2797,32 +2750,32 @@
         <v>10000</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="48"/>
       <c r="C12" s="62"/>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="90">
         <v>5</v>
       </c>
       <c r="H12" s="8">
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K12" s="8">
         <v>5</v>
@@ -2831,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -2842,25 +2795,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="90">
         <v>6</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K13" s="8">
         <v>9</v>
@@ -2869,17 +2822,17 @@
         <v>10000.01</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="59"/>
       <c r="C14" s="61"/>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2888,13 +2841,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -2903,17 +2856,17 @@
         <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="59"/>
       <c r="C15" s="61"/>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -2925,10 +2878,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K15" s="8">
         <v>9</v>
@@ -2937,17 +2890,17 @@
         <v>50</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="59"/>
       <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -2967,7 +2920,7 @@
       <c r="B17" s="59"/>
       <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -2987,7 +2940,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="62"/>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -3008,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>13</v>
@@ -3031,7 +2984,7 @@
       <c r="B20" s="59"/>
       <c r="C20" s="61"/>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>14</v>
@@ -3199,8 +3152,8 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3208,8 +3161,8 @@
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" customWidth="1"/>
     <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" customWidth="1"/>
@@ -3224,78 +3177,60 @@
       <c r="E1" s="38"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
+      <c r="B3" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="45" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="75"/>
-      <c r="C5" s="91"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="77"/>
-      <c r="E5" s="89"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3303,19 +3238,27 @@
         <v>1</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="103"/>
+        <v>49</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="100"/>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
@@ -3323,17 +3266,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="73"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="93"/>
+      <c r="D7" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
@@ -3341,17 +3292,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="73"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="93"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>9999.99</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
@@ -3359,17 +3318,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="73"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
@@ -3377,17 +3344,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="73"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="93"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
@@ -3395,17 +3360,15 @@
         <v>6</v>
       </c>
       <c r="C11" s="73"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="93"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -3413,17 +3376,15 @@
         <v>7</v>
       </c>
       <c r="C12" s="73"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="93"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
@@ -3431,17 +3392,15 @@
         <v>8</v>
       </c>
       <c r="C13" s="74"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="100" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
@@ -3460,7 +3419,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -3479,23 +3438,23 @@
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C17" s="66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="69"/>
       <c r="G17" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I17" s="67"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N17" s="67"/>
       <c r="O17" s="68"/>
@@ -3503,47 +3462,47 @@
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="80" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C18" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="H18" s="82" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>66</v>
       </c>
       <c r="I18" s="83"/>
       <c r="J18" s="65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="70" t="s">
-        <v>66</v>
-      </c>
       <c r="N18" s="65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O18" s="65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -3565,7 +3524,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" s="19">
         <v>4</v>
@@ -3575,20 +3534,14 @@
       <c r="F20" s="22"/>
       <c r="G20" s="27"/>
       <c r="H20" s="78" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I20" s="79"/>
-      <c r="J20" s="2">
-        <v>3</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="21"/>
@@ -3598,21 +3551,13 @@
       <c r="M21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="28">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>

--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39933D8-FE32-4BE1-BA8F-B41BB090A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD7B98A-8CFB-4971-A2DB-27C88B8F5CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -514,10 +514,6 @@
     <t>amount is double, amount is in (0, 10000]</t>
   </si>
   <si>
-    <t xml:space="preserve">type is PaymentType, type in {CASH, CARD}
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">F01. </t>
     </r>
@@ -583,12 +579,6 @@
     <t>table = 9</t>
   </si>
   <si>
-    <t>1, 7, 13</t>
-  </si>
-  <si>
-    <t>2, 8, 14</t>
-  </si>
-  <si>
     <t>3, 9</t>
   </si>
   <si>
@@ -598,18 +588,12 @@
     <t>5, 11</t>
   </si>
   <si>
-    <t>6, 12</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -617,6 +601,9 @@
   </si>
   <si>
     <t>TC8_BVA</t>
+  </si>
+  <si>
+    <t>2, 8</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1340,6 +1327,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1355,50 +1367,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,80 +1454,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,68 +1538,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,12 +1867,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
       <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
@@ -1895,11 +1880,11 @@
       <c r="J1" s="32"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2062,21 +2047,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="31"/>
@@ -2100,7 +2085,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:L9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,38 +2105,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="G5" s="96" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="G5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
@@ -2166,18 +2151,18 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="95" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2185,25 +2170,25 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2211,7 +2196,7 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>70</v>
@@ -2231,7 +2216,7 @@
       <c r="K8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2239,7 +2224,7 @@
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>71</v>
@@ -2259,22 +2244,22 @@
       <c r="K9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="94" t="s">
-        <v>98</v>
+      <c r="L9" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="59" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="90">
+      <c r="G10" s="35">
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
@@ -2289,20 +2274,20 @@
       <c r="K10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="98" t="s">
-        <v>99</v>
+      <c r="L10" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="35">
         <v>4</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -2317,7 +2302,7 @@
       <c r="K11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="98" t="s">
+      <c r="L11" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2325,81 +2310,81 @@
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="35">
         <v>5</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="98"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="59" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="90">
+      <c r="G13" s="35">
         <v>6</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="98"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="35">
         <v>7</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="98"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="90">
+      <c r="G15" s="35">
         <v>8</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="98"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="9"/>
@@ -2407,13 +2392,13 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="98"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4"/>
@@ -2423,13 +2408,13 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="98"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="9"/>
@@ -2437,13 +2422,13 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="98"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4"/>
@@ -2453,13 +2438,13 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="98"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -2467,16 +2452,12 @@
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C13:C14"/>
@@ -2485,7 +2466,11 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2498,8 +2483,8 @@
   </sheetPr>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,40 +2508,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2569,77 +2554,77 @@
         <v>35</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="105" t="s">
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="47">
+      <c r="B7" s="59">
         <v>1</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="10" t="s">
         <v>78</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="35">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -2655,25 +2640,25 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="35">
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -2689,25 +2674,25 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="35">
         <v>3</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="8">
         <v>7</v>
@@ -2723,25 +2708,25 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="35">
         <v>4</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="8">
         <v>8</v>
@@ -2757,25 +2742,25 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="35">
         <v>5</v>
       </c>
       <c r="H12" s="8">
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K12" s="8">
         <v>5</v>
@@ -2787,36 +2772,36 @@
         <v>82</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="47">
+      <c r="B13" s="59">
         <v>2</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="56" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="35">
         <v>6</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>114</v>
+      <c r="H13" s="8">
+        <v>12</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L13" s="8">
         <v>10000.01</v>
@@ -2825,14 +2810,14 @@
         <v>83</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2840,33 +2825,33 @@
       <c r="G14" s="10">
         <v>7</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>109</v>
+      <c r="H14" s="8">
+        <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
       </c>
       <c r="L14" s="8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>82</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -2878,10 +2863,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" s="8">
         <v>9</v>
@@ -2893,14 +2878,14 @@
         <v>83</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -2917,10 +2902,10 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -2937,10 +2922,10 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -2957,15 +2942,11 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="47">
+      <c r="B19" s="59">
         <v>3</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="2"/>
       <c r="E19">
         <v>13</v>
       </c>
@@ -2981,11 +2962,9 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="2"/>
       <c r="E20">
         <v>14</v>
       </c>
@@ -3001,8 +2980,8 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="2"/>
       <c r="G21" s="10">
         <v>14</v>
@@ -3016,8 +2995,8 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="2"/>
       <c r="G22" s="10">
         <v>15</v>
@@ -3031,8 +3010,8 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="2"/>
       <c r="G23" s="10">
         <v>16</v>
@@ -3046,8 +3025,8 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="2"/>
       <c r="G24" s="10">
         <v>17</v>
@@ -3061,10 +3040,10 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="47">
+      <c r="B25" s="59">
         <v>4</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="2"/>
       <c r="G25" s="10">
         <v>18</v>
@@ -3078,51 +3057,53 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="61"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="B7:B12"/>
@@ -3131,13 +3112,11 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3152,8 +3131,8 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3169,62 +3148,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="45" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="75"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>32</v>
@@ -3237,13 +3216,13 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="100"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="4">
         <v>3</v>
       </c>
@@ -3256,7 +3235,7 @@
       <c r="I6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3265,11 +3244,11 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="90"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="4">
         <v>2</v>
       </c>
@@ -3280,9 +3259,9 @@
         <v>83</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3291,9 +3270,9 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="90" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="35" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="8">
@@ -3308,7 +3287,7 @@
       <c r="I8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="100" t="s">
+      <c r="J8" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3317,10 +3296,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="90" t="s">
-        <v>120</v>
+      <c r="C9" s="86"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="35" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="8">
         <v>9</v>
@@ -3334,7 +3313,7 @@
       <c r="I9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3343,14 +3322,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="100" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3359,14 +3338,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="100" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3375,14 +3354,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="100" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3391,14 +3370,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="100" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3429,98 +3408,98 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="66" t="s">
+      <c r="I17" s="100"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="69"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="65" t="s">
+      <c r="I18" s="102"/>
+      <c r="J18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="65" t="s">
+      <c r="N18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="64" t="s">
+      <c r="P18" s="96" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="64"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
@@ -3533,17 +3512,21 @@
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
       <c r="O20" s="21"/>
       <c r="P20" s="22"/>
     </row>
@@ -3552,12 +3535,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3574,12 +3557,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3588,21 +3571,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3746,24 +3714,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3779,4 +3745,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD7B98A-8CFB-4971-A2DB-27C88B8F5CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19592315-F605-4D0A-A146-44DCF18A1268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -462,12 +462,6 @@
     <t>amount is double</t>
   </si>
   <si>
-    <t>amount &gt; 1000.0</t>
-  </si>
-  <si>
-    <t>0 &lt; amount &lt;= 1000.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> amount &lt;= 0</t>
   </si>
   <si>
@@ -604,6 +598,12 @@
   </si>
   <si>
     <t>2, 8</t>
+  </si>
+  <si>
+    <t>0 &lt; amount &lt;= 10000.0</t>
+  </si>
+  <si>
+    <t>amount &gt; 10000.0</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1367,6 +1367,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1397,34 +1424,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,23 +1454,74 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,74 +1544,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2085,7 +2088,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,30 +2116,30 @@
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="G5" s="52" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="G5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
     </row>
     <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
@@ -2151,17 +2154,17 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="36" t="s">
         <v>31</v>
       </c>
@@ -2170,23 +2173,23 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="65" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="43" t="s">
         <v>78</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>80</v>
       </c>
       <c r="L7" s="36" t="s">
         <v>32</v>
@@ -2196,7 +2199,7 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>70</v>
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2214,17 +2217,17 @@
         <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>71</v>
@@ -2233,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2242,28 +2245,28 @@
         <v>-10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>74</v>
+      <c r="D10" s="108" t="s">
+        <v>115</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="35">
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="16">
         <v>-1</v>
@@ -2272,26 +2275,26 @@
         <v>20000.5</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="35">
         <v>4</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="16">
         <v>10</v>
@@ -2300,20 +2303,20 @@
         <v>50.99</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G12" s="35">
         <v>5</v>
@@ -2328,11 +2331,11 @@
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>76</v>
+      <c r="C13" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="35">
@@ -2348,7 +2351,7 @@
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>34</v>
@@ -2366,7 +2369,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4"/>
@@ -2384,7 +2387,7 @@
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="9"/>
@@ -2398,7 +2401,7 @@
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4"/>
@@ -2414,7 +2417,7 @@
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="9"/>
@@ -2428,7 +2431,7 @@
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4"/>
@@ -2444,7 +2447,7 @@
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -2452,11 +2455,16 @@
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
@@ -2466,11 +2474,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2483,7 +2486,7 @@
   </sheetPr>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2516,32 +2519,32 @@
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2554,62 +2557,62 @@
         <v>35</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="59">
+      <c r="B7" s="50">
         <v>1</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>88</v>
+      <c r="C7" s="65" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="55"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2618,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -2633,17 +2636,17 @@
         <v>0.01</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2652,13 +2655,13 @@
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -2667,17 +2670,17 @@
         <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2686,13 +2689,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="J10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K10" s="8">
         <v>7</v>
@@ -2701,17 +2704,17 @@
         <v>9999.99</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2720,13 +2723,13 @@
         <v>4</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K11" s="8">
         <v>8</v>
@@ -2735,17 +2738,17 @@
         <v>10000</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -2757,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K12" s="8">
         <v>5</v>
@@ -2769,21 +2772,21 @@
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="59">
+      <c r="B13" s="50">
         <v>2</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>89</v>
+      <c r="C13" s="65" t="s">
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -2795,10 +2798,10 @@
         <v>12</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K13" s="8">
         <v>5</v>
@@ -2807,17 +2810,17 @@
         <v>10000.01</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2829,10 +2832,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -2841,17 +2844,17 @@
         <v>50</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -2863,10 +2866,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" s="8">
         <v>9</v>
@@ -2875,17 +2878,17 @@
         <v>50</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -2902,10 +2905,10 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -2922,10 +2925,10 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -2942,10 +2945,10 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="59">
+      <c r="B19" s="50">
         <v>3</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="2"/>
       <c r="E19">
         <v>13</v>
@@ -2962,8 +2965,8 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="2"/>
       <c r="E20">
         <v>14</v>
@@ -2980,8 +2983,8 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="2"/>
       <c r="G21" s="10">
         <v>14</v>
@@ -2995,8 +2998,8 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="2"/>
       <c r="G22" s="10">
         <v>15</v>
@@ -3010,8 +3013,8 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="2"/>
       <c r="G23" s="10">
         <v>16</v>
@@ -3025,8 +3028,8 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="58"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="2"/>
       <c r="G24" s="10">
         <v>17</v>
@@ -3040,10 +3043,10 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="59">
+      <c r="B25" s="50">
         <v>4</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="2"/>
       <c r="G25" s="10">
         <v>18</v>
@@ -3057,46 +3060,50 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="57"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="57"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="G28:H28"/>
@@ -3113,10 +3120,6 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3131,7 +3134,7 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -3156,54 +3159,54 @@
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="78" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="78"/>
+      <c r="J4" s="101"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="88"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="79"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>32</v>
@@ -3216,7 +3219,7 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -3230,10 +3233,10 @@
         <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>33</v>
@@ -3244,9 +3247,9 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="4">
@@ -3256,10 +3259,10 @@
         <v>-10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>33</v>
@@ -3270,7 +3273,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="39"/>
       <c r="E8" s="35" t="s">
         <v>51</v>
@@ -3282,10 +3285,10 @@
         <v>9999.99</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J8" s="38" t="s">
         <v>33</v>
@@ -3296,10 +3299,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="39"/>
       <c r="E9" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="8">
         <v>9</v>
@@ -3308,10 +3311,10 @@
         <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>33</v>
@@ -3322,7 +3325,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="39"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -3338,7 +3341,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="39"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -3354,7 +3357,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="39"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3370,7 +3373,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3408,98 +3411,98 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="100"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="97" t="s">
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="100"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="99"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="95" t="s">
+      <c r="I18" s="97"/>
+      <c r="J18" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="96" t="s">
+      <c r="L18" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="95" t="s">
+      <c r="N18" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="95" t="s">
+      <c r="O18" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="96" t="s">
+      <c r="P18" s="78" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="78"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
@@ -3512,10 +3515,10 @@
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="92"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="2">
         <v>4</v>
       </c>
@@ -3535,12 +3538,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3557,12 +3560,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3571,6 +3574,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3714,22 +3732,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3745,21 +3765,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19592315-F605-4D0A-A146-44DCF18A1268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F8D39-BF91-4073-9918-36C63DB80C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -604,6 +604,15 @@
   </si>
   <si>
     <t>amount &gt; 10000.0</t>
+  </si>
+  <si>
+    <t>Datele nu sunt validate, deci nu arunca nicio exceptie</t>
+  </si>
+  <si>
+    <t>Validarea datelor in PaymentService</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1352,6 +1361,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,15 +1379,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1394,39 +1439,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1454,59 +1466,74 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1523,29 +1550,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1860,36 +1872,36 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="32.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="45" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
       <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="48" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1898,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -1932,40 +1944,40 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +1985,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1993,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1989,32 +2001,32 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C20" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,7 +2043,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2048,25 +2060,25 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C26" s="31"/>
     </row>
   </sheetData>
@@ -2091,57 +2103,57 @@
       <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="38.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.81640625" customWidth="1"/>
+    <col min="12" max="12" width="38.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="G5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
@@ -2154,34 +2166,34 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="57" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="10" t="s">
         <v>76</v>
       </c>
@@ -2195,11 +2207,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>70</v>
@@ -2223,11 +2235,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>71</v>
@@ -2251,14 +2263,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="44" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="4"/>
@@ -2281,11 +2293,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>73</v>
@@ -2309,11 +2321,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>116</v>
@@ -2327,11 +2339,11 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="60" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2347,11 +2359,11 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>34</v>
@@ -2365,11 +2377,11 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4"/>
@@ -2383,11 +2395,11 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="9"/>
@@ -2397,11 +2409,11 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4"/>
@@ -2413,11 +2425,11 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="9"/>
@@ -2427,11 +2439,11 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4"/>
@@ -2443,28 +2455,23 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
@@ -2474,6 +2481,11 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2490,63 +2502,63 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="39.77734375" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" customWidth="1"/>
+    <col min="14" max="14" width="39.81640625" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.36328125" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
@@ -2557,32 +2569,32 @@
         <v>35</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="50">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="57" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2591,10 +2603,10 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="64"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="10" t="s">
         <v>76</v>
       </c>
@@ -2608,9 +2620,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="68"/>
-      <c r="C8" s="66"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="61"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="2" t="s">
         <v>90</v>
       </c>
@@ -2642,9 +2654,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
-      <c r="C9" s="66"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="61"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
@@ -2676,9 +2688,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="66"/>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="61"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="2" t="s">
         <v>92</v>
       </c>
@@ -2710,9 +2722,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="68"/>
-      <c r="C11" s="66"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="61"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="2" t="s">
         <v>93</v>
       </c>
@@ -2744,9 +2756,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="C12" s="67"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="2" t="s">
         <v>105</v>
       </c>
@@ -2778,11 +2790,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="60">
         <v>2</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2816,9 +2828,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="68"/>
-      <c r="C14" s="66"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="61"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="2" t="s">
         <v>97</v>
       </c>
@@ -2850,9 +2862,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="68"/>
-      <c r="C15" s="66"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="61"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
@@ -2884,9 +2896,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="68"/>
-      <c r="C16" s="66"/>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="61"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="2" t="s">
         <v>101</v>
       </c>
@@ -2904,9 +2916,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
-      <c r="C17" s="66"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="61"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
@@ -2924,9 +2936,9 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="67"/>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="62"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="2" t="s">
         <v>100</v>
       </c>
@@ -2944,11 +2956,11 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="60">
         <v>3</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="2"/>
       <c r="E19">
         <v>13</v>
@@ -2964,9 +2976,9 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
-      <c r="C20" s="66"/>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="61"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="2"/>
       <c r="E20">
         <v>14</v>
@@ -2982,9 +2994,9 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
-      <c r="C21" s="66"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="61"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="2"/>
       <c r="G21" s="10">
         <v>14</v>
@@ -2997,9 +3009,9 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
-      <c r="C22" s="66"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="61"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="2"/>
       <c r="G22" s="10">
         <v>15</v>
@@ -3012,9 +3024,9 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="68"/>
-      <c r="C23" s="66"/>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="61"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="2"/>
       <c r="G23" s="10">
         <v>16</v>
@@ -3027,9 +3039,9 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="67"/>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="62"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="2"/>
       <c r="G24" s="10">
         <v>17</v>
@@ -3042,11 +3054,11 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="50">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="60">
         <v>4</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="2"/>
       <c r="G25" s="10">
         <v>18</v>
@@ -3059,47 +3071,51 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="66"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="61"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
-      <c r="C27" s="66"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="61"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
-      <c r="C28" s="66"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="61"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="66"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="61"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="67"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="62"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="G5:N5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3116,10 +3132,6 @@
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="G5:N5"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3135,70 +3147,70 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="30.77734375" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="81" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="101" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="101"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="89"/>
-      <c r="C5" s="104"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="91"/>
-      <c r="E5" s="102"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="13" t="s">
         <v>76</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -3238,11 +3250,11 @@
       <c r="I6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J6" s="109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
@@ -3264,11 +3276,11 @@
       <c r="I7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J7" s="109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
@@ -3290,11 +3302,11 @@
       <c r="I8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J8" s="109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3316,11 +3328,11 @@
       <c r="I9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J9" s="109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3336,7 +3348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3352,7 +3364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3368,7 +3380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3384,7 +3396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -3399,7 +3411,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>52</v>
       </c>
@@ -3415,115 +3427,127 @@
       <c r="L15" s="86"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="80" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="80" t="s">
+      <c r="I17" s="101"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="101"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="94" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="100" t="s">
+      <c r="G18" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="79" t="s">
+      <c r="I18" s="103"/>
+      <c r="J18" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="84" t="s">
+      <c r="M18" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="79" t="s">
+      <c r="N18" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="79" t="s">
+      <c r="O18" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="78" t="s">
+      <c r="P18" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="78"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="19">
         <v>4</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="27"/>
+      <c r="D20" s="21">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="H20" s="92" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="I20" s="93"/>
       <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="K20" s="21">
+        <v>4</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
       <c r="M20" s="26" t="s">
         <v>63</v>
       </c>
@@ -3533,17 +3557,17 @@
       <c r="O20" s="21"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3560,12 +3584,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3574,21 +3598,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3732,24 +3741,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3765,4 +3772,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F8D39-BF91-4073-9918-36C63DB80C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B25FD0-6E37-4470-A99A-986FC3264675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -131,43 +131,12 @@
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
   </si>
   <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
   </si>
   <si>
@@ -175,95 +144,6 @@
   </si>
   <si>
     <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exemplu: Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> şi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Condiţii pentru aceşti parametri de intrare: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este un string cu lungimea validă de la 1 la 255 caractere; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este valid dacă ia valori între 1899 şi 2025.</t>
-    </r>
   </si>
   <si>
     <t>EC Identification</t>
@@ -614,12 +494,30 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t>PizzaShop</t>
+  </si>
+  <si>
+    <t>Gestionarea comenzilor in cadrul unui restaurant de pizza</t>
+  </si>
+  <si>
+    <t>addPayment(int table, PaymentType type, double amount): void</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>table, amount. 1 &lt;= table &lt;= 8, 0 &lt; amount &lt;= 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type in not PaymentType </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,21 +556,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1260,7 +1143,7 @@
   </cellStyleXfs>
   <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,44 +1151,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1313,91 +1196,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1409,155 +1322,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,42 +1749,42 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="32.90625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="46" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
       <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H2" s="49" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1910,142 +1793,128 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J4" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J5" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J6" s="33">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>12</v>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>13</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C20" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2060,30 +1929,63 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C26" s="31"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B26:N26"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
@@ -2099,128 +2001,128 @@
   </sheetPr>
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="38.81640625" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="38.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="67" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="G5" s="53" t="s">
+      <c r="G6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+      <c r="H6" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="I6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>68</v>
+      <c r="C7" s="67" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="56"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2229,26 +2131,26 @@
         <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2257,28 +2159,28 @@
         <v>-10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>72</v>
+      <c r="C10" s="52" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="35">
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I10" s="16">
         <v>-1</v>
@@ -2287,26 +2189,26 @@
         <v>20000.5</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G11" s="35">
         <v>4</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I11" s="16">
         <v>10</v>
@@ -2315,20 +2217,20 @@
         <v>50.99</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G12" s="35">
         <v>5</v>
@@ -2339,15 +2241,15 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>74</v>
+      <c r="C13" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="35">
@@ -2359,14 +2261,14 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G14" s="35">
         <v>7</v>
@@ -2377,12 +2279,12 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>33</v>
+      <c r="C15" s="52" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2395,11 +2297,11 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="9"/>
@@ -2409,12 +2311,12 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>33</v>
+      <c r="C17" s="52" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2425,11 +2327,11 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="9"/>
@@ -2439,12 +2341,12 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>33</v>
+      <c r="C19" s="52" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2455,23 +2357,28 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+        <v>29</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
@@ -2481,11 +2388,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2498,133 +2400,133 @@
   </sheetPr>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" customWidth="1"/>
-    <col min="12" max="12" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" customWidth="1"/>
-    <col min="14" max="14" width="39.81640625" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.36328125" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="39.77734375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="73" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="76" t="s">
+      <c r="J6" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="78"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>86</v>
+      <c r="C7" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="56"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="61"/>
-      <c r="C8" s="58"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="70"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2633,13 +2535,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -2648,17 +2550,17 @@
         <v>0.01</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2667,13 +2569,13 @@
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -2682,17 +2584,17 @@
         <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
-      <c r="C10" s="58"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="70"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2701,13 +2603,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" s="8">
         <v>7</v>
@@ -2716,17 +2618,17 @@
         <v>9999.99</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="61"/>
-      <c r="C11" s="58"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="70"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2735,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K11" s="8">
         <v>8</v>
@@ -2750,17 +2652,17 @@
         <v>10000</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="62"/>
-      <c r="C12" s="59"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="53"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -2772,10 +2674,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K12" s="8">
         <v>5</v>
@@ -2784,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="52">
         <v>2</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>87</v>
+      <c r="C13" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -2810,10 +2712,10 @@
         <v>12</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K13" s="8">
         <v>5</v>
@@ -2822,17 +2724,17 @@
         <v>10000.01</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="61"/>
-      <c r="C14" s="58"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="70"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2844,10 +2746,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -2856,17 +2758,17 @@
         <v>50</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="61"/>
-      <c r="C15" s="58"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="70"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -2878,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K15" s="8">
         <v>9</v>
@@ -2890,17 +2792,17 @@
         <v>50</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="70"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -2916,11 +2818,11 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="61"/>
-      <c r="C17" s="58"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="70"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -2936,11 +2838,11 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="62"/>
-      <c r="C18" s="59"/>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="53"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -2956,15 +2858,12 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="60">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="52">
         <v>3</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="2"/>
-      <c r="E19">
-        <v>13</v>
-      </c>
       <c r="G19" s="10">
         <v>12</v>
       </c>
@@ -2976,13 +2875,10 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="61"/>
-      <c r="C20" s="58"/>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="70"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="2"/>
-      <c r="E20">
-        <v>14</v>
-      </c>
       <c r="G20" s="10">
         <v>13</v>
       </c>
@@ -2994,9 +2890,9 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="61"/>
-      <c r="C21" s="58"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="70"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="2"/>
       <c r="G21" s="10">
         <v>14</v>
@@ -3009,9 +2905,9 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="61"/>
-      <c r="C22" s="58"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="70"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="2"/>
       <c r="G22" s="10">
         <v>15</v>
@@ -3024,9 +2920,9 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="61"/>
-      <c r="C23" s="58"/>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="70"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="2"/>
       <c r="G23" s="10">
         <v>16</v>
@@ -3039,9 +2935,9 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="62"/>
-      <c r="C24" s="59"/>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="2"/>
       <c r="G24" s="10">
         <v>17</v>
@@ -3054,11 +2950,11 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="60">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="52">
         <v>4</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="2"/>
       <c r="G25" s="10">
         <v>18</v>
@@ -3071,55 +2967,47 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="70"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="61"/>
-      <c r="C27" s="58"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="70"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="61"/>
-      <c r="C28" s="58"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="70"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="61"/>
-      <c r="C29" s="58"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="70"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="62"/>
-      <c r="C30" s="59"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="G28:H28"/>
@@ -3132,8 +3020,16 @@
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3146,96 +3042,96 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="30.81640625" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="103"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="91"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="79"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="89"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>49</v>
+      <c r="C6" s="89" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="4">
@@ -3245,23 +3141,23 @@
         <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="109" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="4">
@@ -3271,24 +3167,24 @@
         <v>-10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="39"/>
       <c r="E8" s="35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8">
         <v>7</v>
@@ -3297,24 +3193,24 @@
         <v>9999.99</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="39"/>
       <c r="E9" s="35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F9" s="8">
         <v>9</v>
@@ -3323,21 +3219,21 @@
         <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="87"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="39"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -3345,15 +3241,15 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="39"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -3361,15 +3257,15 @@
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="39"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3377,15 +3273,15 @@
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3393,10 +3289,10 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -3411,9 +3307,9 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -3423,102 +3319,102 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="98" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="83"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="85"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="20" t="s">
+      <c r="E18" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="F18" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="98" t="s">
+      <c r="G18" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="95" t="s">
+      <c r="H18" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="103"/>
-      <c r="J18" s="96" t="s">
+      <c r="I18" s="99"/>
+      <c r="J18" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" s="97" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N18" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="80"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" s="19">
         <v>4</v>
@@ -3530,44 +3426,46 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="93"/>
+        <v>113</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="95"/>
       <c r="J20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20" s="22">
         <v>0</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N20" s="2">
-        <v>4</v>
-      </c>
-      <c r="O20" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="21">
+        <v>2</v>
+      </c>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3584,12 +3482,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3598,6 +3496,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3741,22 +3654,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3772,21 +3687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>